--- a/data/data_grant.xlsx
+++ b/data/data_grant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au161118/Dropbox/ASB/Admin stuff/Posters &amp; Papers/PAPERS/EMMA/scripts/emma/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE01C64E-DD4F-2E4A-BB3F-3A28CD3D3F3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E7BC62-9B54-9242-9931-6BAC2E9DD237}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="2580" windowWidth="28040" windowHeight="17440" xr2:uid="{311F2132-B5B7-114C-AA8E-1450AD22F8E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{311F2132-B5B7-114C-AA8E-1450AD22F8E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -300,18 +300,6 @@
     <t>Orquin et al. 2019a Study 2</t>
   </si>
   <si>
-    <t>Orquin et al. 2019b Study 1</t>
-  </si>
-  <si>
-    <t>Orquin et al. 2019b Study 2</t>
-  </si>
-  <si>
-    <t>Orquin et al. 2019b Study 3</t>
-  </si>
-  <si>
-    <t>Orquin et al. 2019b Study 4</t>
-  </si>
-  <si>
     <t>Paernamets et al. 2015 Study 1</t>
   </si>
   <si>
@@ -369,15 +357,6 @@
     <t>This work was funded by a governmental research grant NWO Food CognitionBehavior (05714020) and by the EuropeanUnion Seventh Framework Programme(FP7/2007-2013) under Grant Agreement 607310 (Nudge-It</t>
   </si>
   <si>
-    <t>Waestlund et al. 2014 Study 2</t>
-  </si>
-  <si>
-    <t>Waestlund et al. 2014 Study 3</t>
-  </si>
-  <si>
-    <t>Wolfson et al. 2016</t>
-  </si>
-  <si>
     <t>This work was supported bya grant from the National Heart, Lungand Blood Institute (1K01HL096409).</t>
   </si>
   <si>
@@ -445,6 +424,27 @@
   </si>
   <si>
     <t>Meissner et al. 2016b</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 1</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 2</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 3</t>
+  </si>
+  <si>
+    <t>Orquin et al. 2020 Study 4</t>
+  </si>
+  <si>
+    <t>Waestlund et al. 2015 Study 2</t>
+  </si>
+  <si>
+    <t>Waestlund et al. 2015 Study 3</t>
+  </si>
+  <si>
+    <t>Wolfson et al. 2017</t>
   </si>
 </sst>
 </file>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888BE0AA-7FB7-AC47-80D5-0F4952E1B7F3}">
   <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="185" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="185" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -1976,7 +1976,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2007,12 +2007,12 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2021,12 +2021,12 @@
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2057,12 +2057,12 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2071,12 +2071,12 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2085,12 +2085,12 @@
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2099,12 +2099,12 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2113,12 +2113,12 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -2149,12 +2149,12 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2163,12 +2163,12 @@
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -2199,12 +2199,12 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -2213,12 +2213,12 @@
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -2227,12 +2227,12 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2241,12 +2241,12 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -2255,12 +2255,12 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -2282,7 +2282,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -2313,12 +2313,12 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -2327,12 +2327,12 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -2341,12 +2341,12 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -2377,12 +2377,12 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -2391,12 +2391,12 @@
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -2405,12 +2405,12 @@
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
